--- a/ExcelFile/Item.xlsx
+++ b/ExcelFile/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AltarGuard\Assets\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373EF12B-1377-4786-BD03-96015D6B66CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD8A594-737D-4FCD-86F0-1295C826A8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Hair" sheetId="3" r:id="rId1"/>
@@ -37,758 +37,773 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="243">
   <si>
     <t>atkRange</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hair_42</t>
+  </si>
+  <si>
+    <t>Hair_41</t>
+  </si>
+  <si>
+    <t>Hair_40</t>
+  </si>
+  <si>
+    <t>Hair_39</t>
+  </si>
+  <si>
+    <t>Hair_38</t>
+  </si>
+  <si>
+    <t>Hair_37</t>
+  </si>
+  <si>
+    <t>Hair_36</t>
+  </si>
+  <si>
+    <t>Hair_35</t>
+  </si>
+  <si>
+    <t>Hair_34</t>
+  </si>
+  <si>
+    <t>Hair_33</t>
+  </si>
+  <si>
+    <t>Hair_32</t>
+  </si>
+  <si>
+    <t>Hair_31</t>
+  </si>
+  <si>
+    <t>Hair_30</t>
+  </si>
+  <si>
+    <t>Hair_29</t>
+  </si>
+  <si>
+    <t>Hair_28</t>
+  </si>
+  <si>
+    <t>Hair_27</t>
+  </si>
+  <si>
+    <t>Hair_26</t>
+  </si>
+  <si>
+    <t>Hair_25</t>
+  </si>
+  <si>
+    <t>Hair_24</t>
+  </si>
+  <si>
+    <t>Hair_23</t>
+  </si>
+  <si>
+    <t>Hair_22</t>
+  </si>
+  <si>
+    <t>Hair_21</t>
+  </si>
+  <si>
+    <t>Hair_20</t>
+  </si>
+  <si>
+    <t>Hair_19</t>
+  </si>
+  <si>
+    <t>Hair_18</t>
+  </si>
+  <si>
+    <t>Hair_17</t>
+  </si>
+  <si>
+    <t>Hair_16</t>
+  </si>
+  <si>
+    <t>Hair_15</t>
+  </si>
+  <si>
+    <t>Hair_14</t>
+  </si>
+  <si>
+    <t>Hair_13</t>
+  </si>
+  <si>
+    <t>Hair_12</t>
+  </si>
+  <si>
+    <t>Hair_11</t>
+  </si>
+  <si>
+    <t>Hair_10</t>
+  </si>
+  <si>
+    <t>Hair_9</t>
+  </si>
+  <si>
+    <t>Hair_8</t>
+  </si>
+  <si>
+    <t>Hair_7</t>
+  </si>
+  <si>
+    <t>Hair_6</t>
+  </si>
+  <si>
+    <t>Hair_5</t>
+  </si>
+  <si>
+    <t>Hair_4</t>
+  </si>
+  <si>
+    <t>Hair_3</t>
+  </si>
+  <si>
+    <t>Hair_2</t>
+  </si>
+  <si>
+    <t>Hair_1</t>
+  </si>
+  <si>
+    <t>itemName</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemKey</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FaceHair_7</t>
+  </si>
+  <si>
+    <t>FaceHair_6</t>
+  </si>
+  <si>
+    <t>FaceHair_5</t>
+  </si>
+  <si>
+    <t>FaceHair_4</t>
+  </si>
+  <si>
+    <t>FaceHair_3</t>
+  </si>
+  <si>
+    <t>FaceHair_2</t>
+  </si>
+  <si>
+    <t>FaceHair_1</t>
+  </si>
+  <si>
+    <t>Cloth_25</t>
+  </si>
+  <si>
+    <t>Cloth_24</t>
+  </si>
+  <si>
+    <t>Cloth_23</t>
+  </si>
+  <si>
+    <t>Cloth_22</t>
+  </si>
+  <si>
+    <t>Cloth_21</t>
+  </si>
+  <si>
+    <t>Cloth_20</t>
+  </si>
+  <si>
+    <t>Cloth_19</t>
+  </si>
+  <si>
+    <t>Cloth_18</t>
+  </si>
+  <si>
+    <t>Cloth_17</t>
+  </si>
+  <si>
+    <t>Cloth_16</t>
+  </si>
+  <si>
+    <t>Cloth_15</t>
+  </si>
+  <si>
+    <t>Cloth_14</t>
+  </si>
+  <si>
+    <t>Cloth_13</t>
+  </si>
+  <si>
+    <t>Cloth_12</t>
+  </si>
+  <si>
+    <t>Cloth_11</t>
+  </si>
+  <si>
+    <t>Cloth_10</t>
+  </si>
+  <si>
+    <t>Cloth_9</t>
+  </si>
+  <si>
+    <t>Cloth_8</t>
+  </si>
+  <si>
+    <t>Cloth_7</t>
+  </si>
+  <si>
+    <t>Cloth_6</t>
+  </si>
+  <si>
+    <t>Cloth_5</t>
+  </si>
+  <si>
+    <t>Cloth_4</t>
+  </si>
+  <si>
+    <t>Cloth_3</t>
+  </si>
+  <si>
+    <t>Cloth_2</t>
+  </si>
+  <si>
+    <t>Cloth_1</t>
+  </si>
+  <si>
+    <t>defensivePower</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foot_16</t>
+  </si>
+  <si>
+    <t>Foot_15</t>
+  </si>
+  <si>
+    <t>Foot_14</t>
+  </si>
+  <si>
+    <t>Foot_13</t>
+  </si>
+  <si>
+    <t>Foot_12</t>
+  </si>
+  <si>
+    <t>Foot_11</t>
+  </si>
+  <si>
+    <t>Foot_10</t>
+  </si>
+  <si>
+    <t>Foot_9</t>
+  </si>
+  <si>
+    <t>Foot_8</t>
+  </si>
+  <si>
+    <t>Foot_7</t>
+  </si>
+  <si>
+    <t>Foot_6</t>
+  </si>
+  <si>
+    <t>Foot_5</t>
+  </si>
+  <si>
+    <t>Foot_4</t>
+  </si>
+  <si>
+    <t>Foot_3</t>
+  </si>
+  <si>
+    <t>Foot_2</t>
+  </si>
+  <si>
+    <t>Foot_1</t>
+  </si>
+  <si>
+    <t>Helmet_22</t>
+  </si>
+  <si>
+    <t>Helmet_21</t>
+  </si>
+  <si>
+    <t>Helmet_20</t>
+  </si>
+  <si>
+    <t>Helmet_19</t>
+  </si>
+  <si>
+    <t>Helmet_18</t>
+  </si>
+  <si>
+    <t>Helmet_17</t>
+  </si>
+  <si>
+    <t>Helmet_16</t>
+  </si>
+  <si>
+    <t>Helmet_15</t>
+  </si>
+  <si>
+    <t>Helmet_14</t>
+  </si>
+  <si>
+    <t>Helmet_13</t>
+  </si>
+  <si>
+    <t>Helmet_12</t>
+  </si>
+  <si>
+    <t>Helmet_11</t>
+  </si>
+  <si>
+    <t>Helmet_10</t>
+  </si>
+  <si>
+    <t>Helmet_9</t>
+  </si>
+  <si>
+    <t>Helmet_8</t>
+  </si>
+  <si>
+    <t>Helmet_7</t>
+  </si>
+  <si>
+    <t>Helmet_6</t>
+  </si>
+  <si>
+    <t>Helmet_5</t>
+  </si>
+  <si>
+    <t>Helmet_4</t>
+  </si>
+  <si>
+    <t>Helmet_3</t>
+  </si>
+  <si>
+    <t>Helmet_2</t>
+  </si>
+  <si>
+    <t>Helmet_1</t>
+  </si>
+  <si>
+    <t>Armor_20</t>
+  </si>
+  <si>
+    <t>Armor_19</t>
+  </si>
+  <si>
+    <t>Armor_18</t>
+  </si>
+  <si>
+    <t>Armor_17</t>
+  </si>
+  <si>
+    <t>Armor_16</t>
+  </si>
+  <si>
+    <t>Armor_15</t>
+  </si>
+  <si>
+    <t>Armor_14</t>
+  </si>
+  <si>
+    <t>Armor_13</t>
+  </si>
+  <si>
+    <t>Armor_12</t>
+  </si>
+  <si>
+    <t>Armor_11</t>
+  </si>
+  <si>
+    <t>Armor_10</t>
+  </si>
+  <si>
+    <t>Armor_9</t>
+  </si>
+  <si>
+    <t>Armor_8</t>
+  </si>
+  <si>
+    <t>Armor_7</t>
+  </si>
+  <si>
+    <t>Armor_6</t>
+  </si>
+  <si>
+    <t>Armor_5</t>
+  </si>
+  <si>
+    <t>Armor_4</t>
+  </si>
+  <si>
+    <t>Armor_3</t>
+  </si>
+  <si>
+    <t>Armor_2</t>
+  </si>
+  <si>
+    <t>Armor_1</t>
+  </si>
+  <si>
+    <t>BowBack_2</t>
+  </si>
+  <si>
+    <t>BowBack_1</t>
+  </si>
+  <si>
+    <t>Back_5</t>
+  </si>
+  <si>
+    <t>Back_4</t>
+  </si>
+  <si>
+    <t>Back_3</t>
+  </si>
+  <si>
+    <t>Back_2</t>
+  </si>
+  <si>
+    <t>Back_1</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>Melee</t>
+  </si>
+  <si>
+    <t>Sword_13</t>
+  </si>
+  <si>
+    <t>Sword_12</t>
+  </si>
+  <si>
+    <t>Sword_11</t>
+  </si>
+  <si>
+    <t>Sword_10</t>
+  </si>
+  <si>
+    <t>Sword_9</t>
+  </si>
+  <si>
+    <t>Sword_8</t>
+  </si>
+  <si>
+    <t>Sword_7</t>
+  </si>
+  <si>
+    <t>Sword_6</t>
+  </si>
+  <si>
+    <t>Sword_5</t>
+  </si>
+  <si>
+    <t>Sword_4</t>
+  </si>
+  <si>
+    <t>Sword_3</t>
+  </si>
+  <si>
+    <t>Sword_2</t>
+  </si>
+  <si>
+    <t>Sword_1</t>
+  </si>
+  <si>
+    <t>Spear</t>
+  </si>
+  <si>
+    <t>Spear_5</t>
+  </si>
+  <si>
+    <t>Spear_4</t>
+  </si>
+  <si>
+    <t>Spear_3</t>
+  </si>
+  <si>
+    <t>Spear_2</t>
+  </si>
+  <si>
+    <t>Spear_1</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>AXE_7</t>
+  </si>
+  <si>
+    <t>AXE_6</t>
+  </si>
+  <si>
+    <t>AXE_5</t>
+  </si>
+  <si>
+    <t>AXE_4</t>
+  </si>
+  <si>
+    <t>AXE_3</t>
+  </si>
+  <si>
+    <t>AXE_2</t>
+  </si>
+  <si>
+    <t>AXE_1</t>
+  </si>
+  <si>
+    <t>atkDistance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicalDamage</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>weaponType</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackType</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Shield_10</t>
+  </si>
+  <si>
+    <t>Shield_9</t>
+  </si>
+  <si>
+    <t>Shield_8</t>
+  </si>
+  <si>
+    <t>Shield_7</t>
+  </si>
+  <si>
+    <t>Shield_6</t>
+  </si>
+  <si>
+    <t>Shield_5</t>
+  </si>
+  <si>
+    <t>Shield_4</t>
+  </si>
+  <si>
+    <t>Shield_3</t>
+  </si>
+  <si>
+    <t>Shield_2</t>
+  </si>
+  <si>
+    <t>Shield_1</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>Ranged</t>
+  </si>
+  <si>
+    <t>Bow_4</t>
+  </si>
+  <si>
+    <t>Bow_3</t>
+  </si>
+  <si>
+    <t>Bow_2</t>
+  </si>
+  <si>
+    <t>Bow_1</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Wand_5</t>
+  </si>
+  <si>
+    <t>Wand_4</t>
+  </si>
+  <si>
+    <t>Wand_3</t>
+  </si>
+  <si>
+    <t>Wand_2</t>
+  </si>
+  <si>
+    <t>Wand_1</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>Cure</t>
+  </si>
+  <si>
+    <t>Portion_7</t>
+  </si>
+  <si>
+    <t>Portion_6</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Portion_5</t>
+  </si>
+  <si>
+    <t>Portion_4</t>
+  </si>
+  <si>
+    <t>Portion_3</t>
+  </si>
+  <si>
+    <t>Portion_2</t>
+  </si>
+  <si>
+    <t>Portion_1</t>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>durationTime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>useEffect</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reinforcement</t>
+  </si>
+  <si>
+    <t>Material_9</t>
+  </si>
+  <si>
+    <t>Material_8</t>
+  </si>
+  <si>
+    <t>Material_7</t>
+  </si>
+  <si>
+    <t>Material_6</t>
+  </si>
+  <si>
+    <t>Material_5</t>
+  </si>
+  <si>
+    <t>Material_4</t>
+  </si>
+  <si>
+    <t>Material_3</t>
+  </si>
+  <si>
+    <t>Material_2</t>
+  </si>
+  <si>
+    <t>Material_1</t>
+  </si>
+  <si>
+    <t>Quest</t>
+  </si>
+  <si>
+    <t>Quest_11</t>
+  </si>
+  <si>
+    <t>Quest_10</t>
+  </si>
+  <si>
+    <t>Quest_9</t>
+  </si>
+  <si>
+    <t>Quest_8</t>
+  </si>
+  <si>
+    <t>Quest_7</t>
+  </si>
+  <si>
+    <t>Quest_6</t>
+  </si>
+  <si>
+    <t>Quest_5</t>
+  </si>
+  <si>
+    <t>Quest_4</t>
+  </si>
+  <si>
+    <t>Quest_3</t>
+  </si>
+  <si>
+    <t>Quest_2</t>
+  </si>
+  <si>
+    <t>Quest_1</t>
+  </si>
+  <si>
+    <t>purpose</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkSpeed</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Hair_42</t>
-  </si>
-  <si>
-    <t>Hair_41</t>
-  </si>
-  <si>
-    <t>Hair_40</t>
-  </si>
-  <si>
-    <t>Hair_39</t>
-  </si>
-  <si>
-    <t>Hair_38</t>
-  </si>
-  <si>
-    <t>Hair_37</t>
-  </si>
-  <si>
-    <t>Hair_36</t>
-  </si>
-  <si>
-    <t>Hair_35</t>
-  </si>
-  <si>
-    <t>Hair_34</t>
-  </si>
-  <si>
-    <t>Hair_33</t>
-  </si>
-  <si>
-    <t>Hair_32</t>
-  </si>
-  <si>
-    <t>Hair_31</t>
-  </si>
-  <si>
-    <t>Hair_30</t>
-  </si>
-  <si>
-    <t>Hair_29</t>
-  </si>
-  <si>
-    <t>Hair_28</t>
-  </si>
-  <si>
-    <t>Hair_27</t>
-  </si>
-  <si>
-    <t>Hair_26</t>
-  </si>
-  <si>
-    <t>Hair_25</t>
-  </si>
-  <si>
-    <t>Hair_24</t>
-  </si>
-  <si>
-    <t>Hair_23</t>
-  </si>
-  <si>
-    <t>Hair_22</t>
-  </si>
-  <si>
-    <t>Hair_21</t>
-  </si>
-  <si>
-    <t>Hair_20</t>
-  </si>
-  <si>
-    <t>Hair_19</t>
-  </si>
-  <si>
-    <t>Hair_18</t>
-  </si>
-  <si>
-    <t>Hair_17</t>
-  </si>
-  <si>
-    <t>Hair_16</t>
-  </si>
-  <si>
-    <t>Hair_15</t>
-  </si>
-  <si>
-    <t>Hair_14</t>
-  </si>
-  <si>
-    <t>Hair_13</t>
-  </si>
-  <si>
-    <t>Hair_12</t>
-  </si>
-  <si>
-    <t>Hair_11</t>
-  </si>
-  <si>
-    <t>Hair_10</t>
-  </si>
-  <si>
-    <t>Hair_9</t>
-  </si>
-  <si>
-    <t>Hair_8</t>
-  </si>
-  <si>
-    <t>Hair_7</t>
-  </si>
-  <si>
-    <t>Hair_6</t>
-  </si>
-  <si>
-    <t>Hair_5</t>
-  </si>
-  <si>
-    <t>Hair_4</t>
-  </si>
-  <si>
-    <t>Hair_3</t>
-  </si>
-  <si>
-    <t>Hair_2</t>
-  </si>
-  <si>
-    <t>Hair_1</t>
-  </si>
-  <si>
-    <t>itemName</t>
+    <t>skillKey1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>itemKey</t>
+    <t>skillKey2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>FaceHair_7</t>
-  </si>
-  <si>
-    <t>FaceHair_6</t>
-  </si>
-  <si>
-    <t>FaceHair_5</t>
-  </si>
-  <si>
-    <t>FaceHair_4</t>
-  </si>
-  <si>
-    <t>FaceHair_3</t>
-  </si>
-  <si>
-    <t>FaceHair_2</t>
-  </si>
-  <si>
-    <t>FaceHair_1</t>
-  </si>
-  <si>
-    <t>Cloth_25</t>
-  </si>
-  <si>
-    <t>Cloth_24</t>
-  </si>
-  <si>
-    <t>Cloth_23</t>
-  </si>
-  <si>
-    <t>Cloth_22</t>
-  </si>
-  <si>
-    <t>Cloth_21</t>
-  </si>
-  <si>
-    <t>Cloth_20</t>
-  </si>
-  <si>
-    <t>Cloth_19</t>
-  </si>
-  <si>
-    <t>Cloth_18</t>
-  </si>
-  <si>
-    <t>Cloth_17</t>
-  </si>
-  <si>
-    <t>Cloth_16</t>
-  </si>
-  <si>
-    <t>Cloth_15</t>
-  </si>
-  <si>
-    <t>Cloth_14</t>
-  </si>
-  <si>
-    <t>Cloth_13</t>
-  </si>
-  <si>
-    <t>Cloth_12</t>
-  </si>
-  <si>
-    <t>Cloth_11</t>
-  </si>
-  <si>
-    <t>Cloth_10</t>
-  </si>
-  <si>
-    <t>Cloth_9</t>
-  </si>
-  <si>
-    <t>Cloth_8</t>
-  </si>
-  <si>
-    <t>Cloth_7</t>
-  </si>
-  <si>
-    <t>Cloth_6</t>
-  </si>
-  <si>
-    <t>Cloth_5</t>
-  </si>
-  <si>
-    <t>Cloth_4</t>
-  </si>
-  <si>
-    <t>Cloth_3</t>
-  </si>
-  <si>
-    <t>Cloth_2</t>
-  </si>
-  <si>
-    <t>Cloth_1</t>
-  </si>
-  <si>
-    <t>defensivePower</t>
+    <t>equipLevel</t>
+  </si>
+  <si>
+    <t>equipLevel</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Foot_16</t>
-  </si>
-  <si>
-    <t>Foot_15</t>
-  </si>
-  <si>
-    <t>Foot_14</t>
-  </si>
-  <si>
-    <t>Foot_13</t>
-  </si>
-  <si>
-    <t>Foot_12</t>
-  </si>
-  <si>
-    <t>Foot_11</t>
-  </si>
-  <si>
-    <t>Foot_10</t>
-  </si>
-  <si>
-    <t>Foot_9</t>
-  </si>
-  <si>
-    <t>Foot_8</t>
-  </si>
-  <si>
-    <t>Foot_7</t>
-  </si>
-  <si>
-    <t>Foot_6</t>
-  </si>
-  <si>
-    <t>Foot_5</t>
-  </si>
-  <si>
-    <t>Foot_4</t>
-  </si>
-  <si>
-    <t>Foot_3</t>
-  </si>
-  <si>
-    <t>Foot_2</t>
-  </si>
-  <si>
-    <t>Foot_1</t>
-  </si>
-  <si>
-    <t>Helmet_22</t>
-  </si>
-  <si>
-    <t>Helmet_21</t>
-  </si>
-  <si>
-    <t>Helmet_20</t>
-  </si>
-  <si>
-    <t>Helmet_19</t>
-  </si>
-  <si>
-    <t>Helmet_18</t>
-  </si>
-  <si>
-    <t>Helmet_17</t>
-  </si>
-  <si>
-    <t>Helmet_16</t>
-  </si>
-  <si>
-    <t>Helmet_15</t>
-  </si>
-  <si>
-    <t>Helmet_14</t>
-  </si>
-  <si>
-    <t>Helmet_13</t>
-  </si>
-  <si>
-    <t>Helmet_12</t>
-  </si>
-  <si>
-    <t>Helmet_11</t>
-  </si>
-  <si>
-    <t>Helmet_10</t>
-  </si>
-  <si>
-    <t>Helmet_9</t>
-  </si>
-  <si>
-    <t>Helmet_8</t>
-  </si>
-  <si>
-    <t>Helmet_7</t>
-  </si>
-  <si>
-    <t>Helmet_6</t>
-  </si>
-  <si>
-    <t>Helmet_5</t>
-  </si>
-  <si>
-    <t>Helmet_4</t>
-  </si>
-  <si>
-    <t>Helmet_3</t>
-  </si>
-  <si>
-    <t>Helmet_2</t>
-  </si>
-  <si>
-    <t>Helmet_1</t>
-  </si>
-  <si>
-    <t>Armor_20</t>
-  </si>
-  <si>
-    <t>Armor_19</t>
-  </si>
-  <si>
-    <t>Armor_18</t>
-  </si>
-  <si>
-    <t>Armor_17</t>
-  </si>
-  <si>
-    <t>Armor_16</t>
-  </si>
-  <si>
-    <t>Armor_15</t>
-  </si>
-  <si>
-    <t>Armor_14</t>
-  </si>
-  <si>
-    <t>Armor_13</t>
-  </si>
-  <si>
-    <t>Armor_12</t>
-  </si>
-  <si>
-    <t>Armor_11</t>
-  </si>
-  <si>
-    <t>Armor_10</t>
-  </si>
-  <si>
-    <t>Armor_9</t>
-  </si>
-  <si>
-    <t>Armor_8</t>
-  </si>
-  <si>
-    <t>Armor_7</t>
-  </si>
-  <si>
-    <t>Armor_6</t>
-  </si>
-  <si>
-    <t>Armor_5</t>
-  </si>
-  <si>
-    <t>Armor_4</t>
-  </si>
-  <si>
-    <t>Armor_3</t>
-  </si>
-  <si>
-    <t>Armor_2</t>
-  </si>
-  <si>
-    <t>Armor_1</t>
-  </si>
-  <si>
-    <t>BowBack_2</t>
-  </si>
-  <si>
-    <t>BowBack_1</t>
-  </si>
-  <si>
-    <t>Back_5</t>
-  </si>
-  <si>
-    <t>Back_4</t>
-  </si>
-  <si>
-    <t>Back_3</t>
-  </si>
-  <si>
-    <t>Back_2</t>
-  </si>
-  <si>
-    <t>Back_1</t>
-  </si>
-  <si>
-    <t>Sword</t>
-  </si>
-  <si>
-    <t>Melee</t>
-  </si>
-  <si>
-    <t>Sword_13</t>
-  </si>
-  <si>
-    <t>Sword_12</t>
-  </si>
-  <si>
-    <t>Sword_11</t>
-  </si>
-  <si>
-    <t>Sword_10</t>
-  </si>
-  <si>
-    <t>Sword_9</t>
-  </si>
-  <si>
-    <t>Sword_8</t>
-  </si>
-  <si>
-    <t>Sword_7</t>
-  </si>
-  <si>
-    <t>Sword_6</t>
-  </si>
-  <si>
-    <t>Sword_5</t>
-  </si>
-  <si>
-    <t>Sword_4</t>
-  </si>
-  <si>
-    <t>Sword_3</t>
-  </si>
-  <si>
-    <t>Sword_2</t>
-  </si>
-  <si>
-    <t>Sword_1</t>
-  </si>
-  <si>
-    <t>Spear</t>
-  </si>
-  <si>
-    <t>Spear_5</t>
-  </si>
-  <si>
-    <t>Spear_4</t>
-  </si>
-  <si>
-    <t>Spear_3</t>
-  </si>
-  <si>
-    <t>Spear_2</t>
-  </si>
-  <si>
-    <t>Spear_1</t>
-  </si>
-  <si>
-    <t>Axe</t>
-  </si>
-  <si>
-    <t>AXE_7</t>
-  </si>
-  <si>
-    <t>AXE_6</t>
-  </si>
-  <si>
-    <t>AXE_5</t>
-  </si>
-  <si>
-    <t>AXE_4</t>
-  </si>
-  <si>
-    <t>AXE_3</t>
-  </si>
-  <si>
-    <t>AXE_2</t>
-  </si>
-  <si>
-    <t>AXE_1</t>
-  </si>
-  <si>
-    <t>atkDistance</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicalDamage</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalDamage</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>weaponType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield</t>
-  </si>
-  <si>
-    <t>Shield_10</t>
-  </si>
-  <si>
-    <t>Shield_9</t>
-  </si>
-  <si>
-    <t>Shield_8</t>
-  </si>
-  <si>
-    <t>Shield_7</t>
-  </si>
-  <si>
-    <t>Shield_6</t>
-  </si>
-  <si>
-    <t>Shield_5</t>
-  </si>
-  <si>
-    <t>Shield_4</t>
-  </si>
-  <si>
-    <t>Shield_3</t>
-  </si>
-  <si>
-    <t>Shield_2</t>
-  </si>
-  <si>
-    <t>Shield_1</t>
-  </si>
-  <si>
-    <t>Bow</t>
-  </si>
-  <si>
-    <t>Ranged</t>
-  </si>
-  <si>
-    <t>Bow_4</t>
-  </si>
-  <si>
-    <t>Bow_3</t>
-  </si>
-  <si>
-    <t>Bow_2</t>
-  </si>
-  <si>
-    <t>Bow_1</t>
-  </si>
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>Wand_5</t>
-  </si>
-  <si>
-    <t>Wand_4</t>
-  </si>
-  <si>
-    <t>Wand_3</t>
-  </si>
-  <si>
-    <t>Wand_2</t>
-  </si>
-  <si>
-    <t>Wand_1</t>
-  </si>
-  <si>
-    <t>Hp</t>
-  </si>
-  <si>
-    <t>Cure</t>
-  </si>
-  <si>
-    <t>Portion_7</t>
-  </si>
-  <si>
-    <t>Portion_6</t>
-  </si>
-  <si>
-    <t>Mp</t>
-  </si>
-  <si>
-    <t>Portion_5</t>
-  </si>
-  <si>
-    <t>Portion_4</t>
-  </si>
-  <si>
-    <t>Portion_3</t>
-  </si>
-  <si>
-    <t>Portion_2</t>
-  </si>
-  <si>
-    <t>Portion_1</t>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>durationTime</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>target</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>useEffect</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reinforcement</t>
-  </si>
-  <si>
-    <t>Material_9</t>
-  </si>
-  <si>
-    <t>Material_8</t>
-  </si>
-  <si>
-    <t>Material_7</t>
-  </si>
-  <si>
-    <t>Material_6</t>
-  </si>
-  <si>
-    <t>Material_5</t>
-  </si>
-  <si>
-    <t>Material_4</t>
-  </si>
-  <si>
-    <t>Material_3</t>
-  </si>
-  <si>
-    <t>Material_2</t>
-  </si>
-  <si>
-    <t>Material_1</t>
-  </si>
-  <si>
-    <t>Quest</t>
-  </si>
-  <si>
-    <t>Quest_11</t>
-  </si>
-  <si>
-    <t>Quest_10</t>
-  </si>
-  <si>
-    <t>Quest_9</t>
-  </si>
-  <si>
-    <t>Quest_8</t>
-  </si>
-  <si>
-    <t>Quest_7</t>
-  </si>
-  <si>
-    <t>Quest_6</t>
-  </si>
-  <si>
-    <t>Quest_5</t>
-  </si>
-  <si>
-    <t>Quest_4</t>
-  </si>
-  <si>
-    <t>Quest_3</t>
-  </si>
-  <si>
-    <t>Quest_2</t>
-  </si>
-  <si>
-    <t>Quest_1</t>
-  </si>
-  <si>
-    <t>purpose</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>atkSpeed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillKey1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillKey2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -849,13 +864,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -1501,7 +1519,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1509,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F39AED-BD2D-41F8-9E40-1ED4D812D7DA}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1520,7 +1538,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1554,8 +1572,11 @@
       <c r="K1" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>9000</v>
       </c>
@@ -1589,8 +1610,11 @@
       <c r="K2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>9001</v>
       </c>
@@ -1624,8 +1648,11 @@
       <c r="K3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>9002</v>
       </c>
@@ -1659,8 +1686,11 @@
       <c r="K4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>9003</v>
       </c>
@@ -1694,9 +1724,12 @@
       <c r="K5" s="1">
         <v>1</v>
       </c>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1704,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49D71B6-5E6D-4C5A-AFD9-01098C98C5FE}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1715,7 +1748,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1749,8 +1782,11 @@
       <c r="K1" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10000</v>
       </c>
@@ -1784,8 +1820,11 @@
       <c r="K2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
@@ -1819,8 +1858,11 @@
       <c r="K3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
@@ -1854,8 +1896,11 @@
       <c r="K4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10003</v>
       </c>
@@ -1889,8 +1934,11 @@
       <c r="K5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10004</v>
       </c>
@@ -1924,9 +1972,12 @@
       <c r="K6" s="1">
         <v>1</v>
       </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2106,7 +2157,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2357,7 +2408,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2365,1124 +2416,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5D5B13-267F-416F-9F3B-5687278D5C9C}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>1003</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>1004</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>1005</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>1006</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FAC194-33C9-437B-B484-A014C093C601}">
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="1">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D387ED5-53A4-4740-9E3F-97EA6AA8B7EB}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>3000</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>3001</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3002</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3003</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>3004</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>3005</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>3006</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>3007</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>3008</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>3009</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>3010</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>3011</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>3012</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>3013</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>3014</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>3015</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="1">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26443125-9D97-4FEB-8914-D872B7DD104A}">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>4000</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>4001</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>4002</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4003</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4004</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>4005</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>4006</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>4007</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>4008</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>4009</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>4010</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>4011</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>4012</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>4013</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>4014</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>4015</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>4016</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>4017</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>4018</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>4019</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>4020</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>4021</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="1">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948D52E2-402A-45F8-AF74-37DFDAD96F7D}">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>5000</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>5001</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>5002</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>5003</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5004</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5005</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>5006</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>5007</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>5008</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>5009</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>5010</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>5011</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>5012</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>5013</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>5014</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>5015</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>5016</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>5017</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>5018</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>5019</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="1">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822295C3-5C88-4A53-9E47-40F8EFD3C2F8}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3501,99 +2434,77 @@
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>6001</v>
+        <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>6002</v>
+        <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>6003</v>
+        <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>6004</v>
+        <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6005</v>
+        <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6006</v>
+        <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E94F986-4FAB-46CA-940E-7916F6829291}">
-  <dimension ref="A1:K26"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FAC194-33C9-437B-B484-A014C093C601}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K26"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3601,7 +2512,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3609,6 +2520,1432 @@
         <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="1">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="1">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D387ED5-53A4-4740-9E3F-97EA6AA8B7EB}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>3001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>3006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>3007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>3008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>3009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>3010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>3011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>3012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>3013</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>3014</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>3015</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26443125-9D97-4FEB-8914-D872B7DD104A}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>4000</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>4001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>4002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>4006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>4007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>4008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>4009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>4010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>4011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>4012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>4013</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>4014</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>4015</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>4016</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>4017</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>4018</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>4019</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>4020</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="1">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948D52E2-402A-45F8-AF74-37DFDAD96F7D}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>5001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>5007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>5008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>5010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>5011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>5012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>5013</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>5014</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>5015</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>5016</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>5017</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>5018</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>5019</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822295C3-5C88-4A53-9E47-40F8EFD3C2F8}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>6000</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>6001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>6002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>6003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E94F986-4FAB-46CA-940E-7916F6829291}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3635,8 +3972,11 @@
       <c r="K1" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>7000</v>
       </c>
@@ -3670,8 +4010,11 @@
       <c r="K2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>7001</v>
       </c>
@@ -3705,8 +4048,11 @@
       <c r="K3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>7002</v>
       </c>
@@ -3740,8 +4086,11 @@
       <c r="K4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>7003</v>
       </c>
@@ -3775,8 +4124,11 @@
       <c r="K5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>7004</v>
       </c>
@@ -3810,8 +4162,11 @@
       <c r="K6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>7005</v>
       </c>
@@ -3845,8 +4200,11 @@
       <c r="K7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7006</v>
       </c>
@@ -3880,8 +4238,11 @@
       <c r="K8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7007</v>
       </c>
@@ -3915,8 +4276,11 @@
       <c r="K9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7008</v>
       </c>
@@ -3950,8 +4314,11 @@
       <c r="K10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7009</v>
       </c>
@@ -3985,8 +4352,11 @@
       <c r="K11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7010</v>
       </c>
@@ -4020,8 +4390,11 @@
       <c r="K12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>7011</v>
       </c>
@@ -4055,8 +4428,11 @@
       <c r="K13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>7012</v>
       </c>
@@ -4090,8 +4466,11 @@
       <c r="K14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>7013</v>
       </c>
@@ -4125,8 +4504,11 @@
       <c r="K15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>7014</v>
       </c>
@@ -4160,8 +4542,11 @@
       <c r="K16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>7015</v>
       </c>
@@ -4195,8 +4580,11 @@
       <c r="K17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>7016</v>
       </c>
@@ -4230,8 +4618,11 @@
       <c r="K18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>7017</v>
       </c>
@@ -4265,8 +4656,11 @@
       <c r="K19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>7018</v>
       </c>
@@ -4300,8 +4694,11 @@
       <c r="K20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>7019</v>
       </c>
@@ -4335,8 +4732,11 @@
       <c r="K21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>7020</v>
       </c>
@@ -4370,8 +4770,11 @@
       <c r="K22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>7021</v>
       </c>
@@ -4405,8 +4808,11 @@
       <c r="K23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>7022</v>
       </c>
@@ -4440,8 +4846,11 @@
       <c r="K24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>7023</v>
       </c>
@@ -4475,8 +4884,11 @@
       <c r="K25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>7024</v>
       </c>
@@ -4510,9 +4922,12 @@
       <c r="K26" s="1">
         <v>1</v>
       </c>
+      <c r="L26" s="1">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4520,10 +4935,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9EC655-CDDC-4554-A9BC-51A6C4853A3C}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K11"/>
+      <selection activeCell="L2" sqref="L2:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4531,7 +4946,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4565,8 +4980,11 @@
       <c r="K1" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>8000</v>
       </c>
@@ -4600,8 +5018,11 @@
       <c r="K2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>8001</v>
       </c>
@@ -4635,8 +5056,11 @@
       <c r="K3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>8002</v>
       </c>
@@ -4670,8 +5094,11 @@
       <c r="K4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>8003</v>
       </c>
@@ -4705,8 +5132,11 @@
       <c r="K5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>8004</v>
       </c>
@@ -4740,8 +5170,11 @@
       <c r="K6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>8005</v>
       </c>
@@ -4775,8 +5208,11 @@
       <c r="K7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8006</v>
       </c>
@@ -4810,8 +5246,11 @@
       <c r="K8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8007</v>
       </c>
@@ -4845,8 +5284,11 @@
       <c r="K9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8008</v>
       </c>
@@ -4880,8 +5322,11 @@
       <c r="K10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8009</v>
       </c>
@@ -4915,9 +5360,12 @@
       <c r="K11" s="1">
         <v>1</v>
       </c>
+      <c r="L11" s="1">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>